--- a/data/pca/factorExposure/factorExposure_2018-08-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03674340176945209</v>
+        <v>0.03088621767590185</v>
       </c>
       <c r="C2">
-        <v>0.04571531428970776</v>
+        <v>0.0142389881874678</v>
       </c>
       <c r="D2">
-        <v>0.03824553670860822</v>
+        <v>0.0138757992485286</v>
       </c>
       <c r="E2">
-        <v>-0.06044088824013655</v>
+        <v>-0.01602485476870139</v>
       </c>
       <c r="F2">
-        <v>-0.1408822772218826</v>
+        <v>0.02305898752379821</v>
       </c>
       <c r="G2">
-        <v>0.04687826852146068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08528869593249366</v>
+      </c>
+      <c r="H2">
+        <v>-0.01899489897766767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1204521283449266</v>
+        <v>0.082415518485004</v>
       </c>
       <c r="C3">
-        <v>0.005256607444941746</v>
+        <v>-0.01517238025669226</v>
       </c>
       <c r="D3">
-        <v>0.033854941676728</v>
+        <v>0.0168628483036067</v>
       </c>
       <c r="E3">
-        <v>-0.1144287815737638</v>
+        <v>-0.008496794581851482</v>
       </c>
       <c r="F3">
-        <v>-0.3946530966648176</v>
+        <v>-0.01556382568652287</v>
       </c>
       <c r="G3">
-        <v>0.1479343175612207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2738836393962479</v>
+      </c>
+      <c r="H3">
+        <v>-0.03737590838842818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05416774440296461</v>
+        <v>0.05042047215690854</v>
       </c>
       <c r="C4">
-        <v>0.03577636093914129</v>
+        <v>0.002441419812905707</v>
       </c>
       <c r="D4">
-        <v>-0.004146666414891758</v>
+        <v>0.03102846732474681</v>
       </c>
       <c r="E4">
-        <v>-0.06757536917534911</v>
+        <v>0.02028845271425896</v>
       </c>
       <c r="F4">
-        <v>-0.07056462155106634</v>
+        <v>0.05547684579543778</v>
       </c>
       <c r="G4">
-        <v>0.04582588723282377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05336729630499575</v>
+      </c>
+      <c r="H4">
+        <v>-0.02602772589836113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01305520808898308</v>
+        <v>0.02984660817644311</v>
       </c>
       <c r="C6">
-        <v>-0.002375805387218461</v>
+        <v>0.002851680984006434</v>
       </c>
       <c r="D6">
-        <v>0.01460777653543015</v>
+        <v>0.04143527565597228</v>
       </c>
       <c r="E6">
-        <v>-0.02312302053343942</v>
+        <v>0.005199126237588825</v>
       </c>
       <c r="F6">
-        <v>-0.01194630250341035</v>
+        <v>0.03619253128951239</v>
       </c>
       <c r="G6">
-        <v>-0.003391839064707726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01679370322307056</v>
+      </c>
+      <c r="H6">
+        <v>-0.05215417997939787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02731439282974562</v>
+        <v>0.02108194415718868</v>
       </c>
       <c r="C7">
-        <v>0.01576863901805921</v>
+        <v>0.002439640906758962</v>
       </c>
       <c r="D7">
-        <v>0.03130009917665718</v>
+        <v>0.01807889585141295</v>
       </c>
       <c r="E7">
-        <v>-0.03989468994796544</v>
+        <v>0.03509934426080911</v>
       </c>
       <c r="F7">
-        <v>-0.06206875418074737</v>
+        <v>0.02107560940355507</v>
       </c>
       <c r="G7">
-        <v>0.05435411265581912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.04062961124128402</v>
+      </c>
+      <c r="H7">
+        <v>-0.0156303212075808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01627684086125708</v>
+        <v>0.005744472505616573</v>
       </c>
       <c r="C8">
-        <v>0.01512723472250811</v>
+        <v>-0.002552261660595823</v>
       </c>
       <c r="D8">
-        <v>-0.002041938697713721</v>
+        <v>0.009077490176155979</v>
       </c>
       <c r="E8">
-        <v>-0.07636792977367041</v>
+        <v>0.01068567756772111</v>
       </c>
       <c r="F8">
-        <v>-0.08513136185714272</v>
+        <v>0.02835149306247382</v>
       </c>
       <c r="G8">
-        <v>0.06616360058890718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05824039914554244</v>
+      </c>
+      <c r="H8">
+        <v>-0.006618491470968797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0441511386665783</v>
+        <v>0.04080745140256765</v>
       </c>
       <c r="C9">
-        <v>0.02807612668897902</v>
+        <v>-0.001431355417919519</v>
       </c>
       <c r="D9">
-        <v>-0.01377638657132845</v>
+        <v>0.02659816413222646</v>
       </c>
       <c r="E9">
-        <v>-0.0715019497119071</v>
+        <v>0.01765058800873006</v>
       </c>
       <c r="F9">
-        <v>-0.06522229883390443</v>
+        <v>0.03459332575731482</v>
       </c>
       <c r="G9">
-        <v>0.0490251694252434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06318499975699771</v>
+      </c>
+      <c r="H9">
+        <v>-0.02471075353875097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04822125025469103</v>
+        <v>0.09614250382821586</v>
       </c>
       <c r="C10">
-        <v>0.0430618125253097</v>
+        <v>-0.03333298062988121</v>
       </c>
       <c r="D10">
-        <v>-0.01742995016872815</v>
+        <v>-0.1458898122009069</v>
       </c>
       <c r="E10">
-        <v>0.1102234402858858</v>
+        <v>-0.0207768385023617</v>
       </c>
       <c r="F10">
-        <v>-0.08350408587947938</v>
+        <v>-0.06948089892438475</v>
       </c>
       <c r="G10">
-        <v>-0.0460537450781791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0227631465093099</v>
+      </c>
+      <c r="H10">
+        <v>-0.004148779098083623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03477915436791483</v>
+        <v>0.0234932727316826</v>
       </c>
       <c r="C11">
-        <v>0.01121802893148652</v>
+        <v>-0.008819867565300277</v>
       </c>
       <c r="D11">
-        <v>0.01794353031733106</v>
+        <v>0.03316982769210307</v>
       </c>
       <c r="E11">
-        <v>-0.03800312233725293</v>
+        <v>-0.003701386834656083</v>
       </c>
       <c r="F11">
-        <v>-0.0325856737783704</v>
+        <v>0.02022032563354533</v>
       </c>
       <c r="G11">
-        <v>0.02141403400842797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03707618584906383</v>
+      </c>
+      <c r="H11">
+        <v>-0.02725319827855926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04219810875654915</v>
+        <v>0.03222369675389219</v>
       </c>
       <c r="C12">
-        <v>0.01188191464378848</v>
+        <v>-0.007351831617079963</v>
       </c>
       <c r="D12">
-        <v>0.002416414518341222</v>
+        <v>0.03282905362927978</v>
       </c>
       <c r="E12">
-        <v>-0.04581107175846579</v>
+        <v>0.007700708560454597</v>
       </c>
       <c r="F12">
-        <v>-0.01484233456685872</v>
+        <v>0.02408646377697784</v>
       </c>
       <c r="G12">
-        <v>0.01767706686169179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01447367515361715</v>
+      </c>
+      <c r="H12">
+        <v>-0.01393723623845152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02092066229900836</v>
+        <v>0.02764982341919649</v>
       </c>
       <c r="C13">
-        <v>0.02344389183183174</v>
+        <v>0.01247441496551122</v>
       </c>
       <c r="D13">
-        <v>0.033862787188898</v>
+        <v>0.002422660077452292</v>
       </c>
       <c r="E13">
-        <v>-0.0238216006407858</v>
+        <v>-0.01839272197008755</v>
       </c>
       <c r="F13">
-        <v>-0.09063199922244078</v>
+        <v>0.01828022466922883</v>
       </c>
       <c r="G13">
-        <v>0.03095752088279234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.07123294373218172</v>
+      </c>
+      <c r="H13">
+        <v>-0.02560657629600051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01118782720123592</v>
+        <v>0.01610498469621518</v>
       </c>
       <c r="C14">
-        <v>0.01742195700360726</v>
+        <v>6.771528046206714e-05</v>
       </c>
       <c r="D14">
-        <v>0.005320349925896873</v>
+        <v>0.003130731726421507</v>
       </c>
       <c r="E14">
-        <v>-0.04379839959511099</v>
+        <v>0.00770180034916979</v>
       </c>
       <c r="F14">
-        <v>-0.06288123150220867</v>
+        <v>0.02337605814305176</v>
       </c>
       <c r="G14">
-        <v>0.06391712575511747</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04734554790073216</v>
+      </c>
+      <c r="H14">
+        <v>0.01819456813695947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02619228052894398</v>
+        <v>0.024853266717146</v>
       </c>
       <c r="C16">
-        <v>0.01255928742899164</v>
+        <v>-0.009417462375354521</v>
       </c>
       <c r="D16">
-        <v>0.01318287791440965</v>
+        <v>0.02845101293515006</v>
       </c>
       <c r="E16">
-        <v>-0.03658062416159261</v>
+        <v>0.0008961704017006062</v>
       </c>
       <c r="F16">
-        <v>-0.03747381058185312</v>
+        <v>0.02227534090621749</v>
       </c>
       <c r="G16">
-        <v>0.02348495012027913</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03299466432666491</v>
+      </c>
+      <c r="H16">
+        <v>-0.02134311324095264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03906699292417762</v>
+        <v>0.03514820645737177</v>
       </c>
       <c r="C19">
-        <v>0.01296884826835866</v>
+        <v>-0.001272470968246293</v>
       </c>
       <c r="D19">
-        <v>0.01700896266047119</v>
+        <v>0.01176613278083129</v>
       </c>
       <c r="E19">
-        <v>-0.06006299968873599</v>
+        <v>-0.001878839828028032</v>
       </c>
       <c r="F19">
-        <v>-0.1002450558173044</v>
+        <v>0.02964106643262683</v>
       </c>
       <c r="G19">
-        <v>0.04160261988505512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.0758935247661898</v>
+      </c>
+      <c r="H19">
+        <v>-0.03631041345650624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>3.886406430415272e-05</v>
+        <v>0.01052100824855694</v>
       </c>
       <c r="C20">
-        <v>0.02203382726569256</v>
+        <v>0.005967274222795281</v>
       </c>
       <c r="D20">
-        <v>0.008079187432353431</v>
+        <v>0.001888760250302939</v>
       </c>
       <c r="E20">
-        <v>-0.03765535215527864</v>
+        <v>-0.0001798294331294171</v>
       </c>
       <c r="F20">
-        <v>-0.06345960263548743</v>
+        <v>0.0161589419203725</v>
       </c>
       <c r="G20">
-        <v>0.06608193258605537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05306889013089575</v>
+      </c>
+      <c r="H20">
+        <v>0.01040425803633431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0003424359299666087</v>
+        <v>0.02333669808544138</v>
       </c>
       <c r="C21">
-        <v>-0.003309982356408502</v>
+        <v>0.005002365539386251</v>
       </c>
       <c r="D21">
-        <v>0.004710706968549235</v>
+        <v>0.003083284259773143</v>
       </c>
       <c r="E21">
-        <v>-0.04363322838140541</v>
+        <v>0.01092825655368028</v>
       </c>
       <c r="F21">
-        <v>-0.06315376643574465</v>
+        <v>0.009036644000996449</v>
       </c>
       <c r="G21">
-        <v>0.02512867452388374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05760066303008204</v>
+      </c>
+      <c r="H21">
+        <v>-0.009672050155145939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03292745260047705</v>
+        <v>0.0229730219101554</v>
       </c>
       <c r="C24">
-        <v>0.01584238547790611</v>
+        <v>-0.003923762399113545</v>
       </c>
       <c r="D24">
-        <v>0.01213879648131334</v>
+        <v>0.02924849779555168</v>
       </c>
       <c r="E24">
-        <v>-0.02463002821501023</v>
+        <v>0.001204903280833873</v>
       </c>
       <c r="F24">
-        <v>-0.03216442028000018</v>
+        <v>0.01802487247825896</v>
       </c>
       <c r="G24">
-        <v>0.01921366112710568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03099098195295917</v>
+      </c>
+      <c r="H24">
+        <v>-0.02600354617414604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03214675883626307</v>
+        <v>0.03411480050746278</v>
       </c>
       <c r="C25">
-        <v>0.008746348486373472</v>
+        <v>-0.002616970034252485</v>
       </c>
       <c r="D25">
-        <v>0.008250652784113034</v>
+        <v>0.0256294805896953</v>
       </c>
       <c r="E25">
-        <v>-0.04175075864374823</v>
+        <v>0.001670518444281521</v>
       </c>
       <c r="F25">
-        <v>-0.03109990285343649</v>
+        <v>0.02245421415638385</v>
       </c>
       <c r="G25">
-        <v>0.006241274623393616</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03504055856986191</v>
+      </c>
+      <c r="H25">
+        <v>-0.02876013869128328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01892563486054643</v>
+        <v>0.01927161461907238</v>
       </c>
       <c r="C26">
-        <v>-0.00437659920299238</v>
+        <v>0.01722372583217781</v>
       </c>
       <c r="D26">
-        <v>0.03514256699003021</v>
+        <v>0.004459308506829011</v>
       </c>
       <c r="E26">
-        <v>-0.04496223268030906</v>
+        <v>-0.007126537782023422</v>
       </c>
       <c r="F26">
-        <v>-0.05629781343059072</v>
+        <v>0.004563882320684783</v>
       </c>
       <c r="G26">
-        <v>0.03267470920769392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03888819395610196</v>
+      </c>
+      <c r="H26">
+        <v>0.002411885670719145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07478311848333802</v>
+        <v>0.03098720002985208</v>
       </c>
       <c r="C27">
-        <v>0.04967730311724617</v>
+        <v>-0.01242023427266582</v>
       </c>
       <c r="D27">
-        <v>-0.001011613936105609</v>
+        <v>0.01128620114384723</v>
       </c>
       <c r="E27">
-        <v>-0.05591409845502616</v>
+        <v>0.005144926459622527</v>
       </c>
       <c r="F27">
-        <v>-0.052461596014252</v>
+        <v>0.02572502844023696</v>
       </c>
       <c r="G27">
-        <v>0.05332281727527717</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02835039850106011</v>
+      </c>
+      <c r="H27">
+        <v>0.002224724411968129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07106154189778062</v>
+        <v>0.1457834297294931</v>
       </c>
       <c r="C28">
-        <v>0.06246454680540479</v>
+        <v>-0.03709004729395836</v>
       </c>
       <c r="D28">
-        <v>-0.03868735281455848</v>
+        <v>-0.2181993789414351</v>
       </c>
       <c r="E28">
-        <v>0.1657999183514267</v>
+        <v>-0.02483367586999363</v>
       </c>
       <c r="F28">
-        <v>-0.1079717720017562</v>
+        <v>-0.09245010903411899</v>
       </c>
       <c r="G28">
-        <v>-0.02303713301209076</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.008646680936526418</v>
+      </c>
+      <c r="H28">
+        <v>0.01236203031079445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0207072256527643</v>
+        <v>0.02202343435100966</v>
       </c>
       <c r="C29">
-        <v>0.01908054515275537</v>
+        <v>-0.002444292547124152</v>
       </c>
       <c r="D29">
-        <v>-0.001685078445886126</v>
+        <v>0.004584964993000683</v>
       </c>
       <c r="E29">
-        <v>-0.05893769376644228</v>
+        <v>0.009429040664896507</v>
       </c>
       <c r="F29">
-        <v>-0.04516229445459057</v>
+        <v>0.02497029507425182</v>
       </c>
       <c r="G29">
-        <v>0.06510116755510505</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0397063045395929</v>
+      </c>
+      <c r="H29">
+        <v>0.01930672669055019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08974196344344422</v>
+        <v>0.05576730304545203</v>
       </c>
       <c r="C30">
-        <v>0.0528426655648557</v>
+        <v>0.002505059411490227</v>
       </c>
       <c r="D30">
-        <v>0.03528941142021908</v>
+        <v>0.05838431537803036</v>
       </c>
       <c r="E30">
-        <v>-0.0845959674548932</v>
+        <v>-0.03430980967431426</v>
       </c>
       <c r="F30">
-        <v>-0.04656837927916106</v>
+        <v>0.06751553268116629</v>
       </c>
       <c r="G30">
-        <v>0.0487368139783411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06791308864558072</v>
+      </c>
+      <c r="H30">
+        <v>-0.03382254639376843</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06332684284909668</v>
+        <v>0.05509337785612973</v>
       </c>
       <c r="C31">
-        <v>0.01484939302387123</v>
+        <v>-0.01533321872548755</v>
       </c>
       <c r="D31">
-        <v>0.04976344587691055</v>
+        <v>0.02790919963635815</v>
       </c>
       <c r="E31">
-        <v>-0.03414871136842514</v>
+        <v>-0.009554401881735392</v>
       </c>
       <c r="F31">
-        <v>-0.03951415781688549</v>
+        <v>0.01961338215121509</v>
       </c>
       <c r="G31">
-        <v>0.0773742136669372</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02436463370316401</v>
+      </c>
+      <c r="H31">
+        <v>0.01577396103533178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02170180031668833</v>
+        <v>0.01632746274006483</v>
       </c>
       <c r="C32">
-        <v>0.02753357939289082</v>
+        <v>-0.01699055181584258</v>
       </c>
       <c r="D32">
-        <v>0.001127851147443357</v>
+        <v>-0.007721033823028881</v>
       </c>
       <c r="E32">
-        <v>-0.07652511629186599</v>
+        <v>0.01611322820544363</v>
       </c>
       <c r="F32">
-        <v>-0.06058694391366301</v>
+        <v>0.04653840524164391</v>
       </c>
       <c r="G32">
-        <v>0.0482023167497516</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05829039768915722</v>
+      </c>
+      <c r="H32">
+        <v>-0.04156867888320234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05343528934382787</v>
+        <v>0.03969576182768805</v>
       </c>
       <c r="C33">
-        <v>0.0003513152098322812</v>
+        <v>-0.001308732103043113</v>
       </c>
       <c r="D33">
-        <v>0.04672477150142727</v>
+        <v>0.03191951873774015</v>
       </c>
       <c r="E33">
-        <v>-0.07916994565995204</v>
+        <v>-0.02374189705878028</v>
       </c>
       <c r="F33">
-        <v>-0.08928487484475957</v>
+        <v>0.01223559532823153</v>
       </c>
       <c r="G33">
-        <v>0.04878479035714466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06616188463962623</v>
+      </c>
+      <c r="H33">
+        <v>-0.01516693377273815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03327323733067492</v>
+        <v>0.02768424333673743</v>
       </c>
       <c r="C34">
-        <v>0.01466696050754628</v>
+        <v>-0.01727857577558256</v>
       </c>
       <c r="D34">
-        <v>0.0106218375721656</v>
+        <v>0.02961457003205353</v>
       </c>
       <c r="E34">
-        <v>-0.04834055547787407</v>
+        <v>0.006354585229812014</v>
       </c>
       <c r="F34">
-        <v>-0.03818360331070927</v>
+        <v>0.02225634384539815</v>
       </c>
       <c r="G34">
-        <v>0.01811335021838793</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02881964358384582</v>
+      </c>
+      <c r="H34">
+        <v>-0.02442713855726455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01351840809679105</v>
+        <v>0.02159234912196248</v>
       </c>
       <c r="C36">
-        <v>0.009190402793118356</v>
+        <v>0.00298130302548391</v>
       </c>
       <c r="D36">
-        <v>0.002507600477389734</v>
+        <v>-0.002147516151325299</v>
       </c>
       <c r="E36">
-        <v>-0.03038858361057412</v>
+        <v>0.0014563971312494</v>
       </c>
       <c r="F36">
-        <v>-0.02367556258400182</v>
+        <v>0.008032749505357165</v>
       </c>
       <c r="G36">
-        <v>0.03552781505389238</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02119162938034742</v>
+      </c>
+      <c r="H36">
+        <v>0.00385379802666681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0006175422252734747</v>
+        <v>0.02175535178288043</v>
       </c>
       <c r="C38">
-        <v>-0.006443442592597891</v>
+        <v>-0.01681825519859365</v>
       </c>
       <c r="D38">
-        <v>-0.01390685037642545</v>
+        <v>-0.001022412362827429</v>
       </c>
       <c r="E38">
-        <v>0.00127621497181487</v>
+        <v>0.003805602805160985</v>
       </c>
       <c r="F38">
-        <v>-0.01921815037691776</v>
+        <v>0.009643250067568885</v>
       </c>
       <c r="G38">
-        <v>-0.01127468049657342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.03068339148161681</v>
+      </c>
+      <c r="H38">
+        <v>-0.02091738174081852</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03901635128255144</v>
+        <v>0.02217891846992897</v>
       </c>
       <c r="C39">
-        <v>0.01957320764712397</v>
+        <v>-0.001019576421619452</v>
       </c>
       <c r="D39">
-        <v>0.03256903252286129</v>
+        <v>0.06922494071397142</v>
       </c>
       <c r="E39">
-        <v>-0.05120237598229364</v>
+        <v>-0.001362006155561613</v>
       </c>
       <c r="F39">
-        <v>-0.04395852878372834</v>
+        <v>0.03951188606422772</v>
       </c>
       <c r="G39">
-        <v>0.01835197954712476</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05780018010580987</v>
+      </c>
+      <c r="H39">
+        <v>-0.05007966805793235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03142315804336905</v>
+        <v>0.03489121475399715</v>
       </c>
       <c r="C40">
-        <v>0.04359615402013419</v>
+        <v>-0.002842754382816077</v>
       </c>
       <c r="D40">
-        <v>0.05681627226553951</v>
+        <v>0.01480677458870213</v>
       </c>
       <c r="E40">
-        <v>-0.04124539207800679</v>
+        <v>-0.02250767544183928</v>
       </c>
       <c r="F40">
-        <v>-0.08728527508241349</v>
+        <v>0.03341880416889947</v>
       </c>
       <c r="G40">
-        <v>0.0448668906128806</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.05318919659629189</v>
+      </c>
+      <c r="H40">
+        <v>-0.04566666277167109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001706311546227656</v>
+        <v>0.01076872508796338</v>
       </c>
       <c r="C41">
-        <v>-0.007886772312499008</v>
+        <v>0.0001807274861055906</v>
       </c>
       <c r="D41">
-        <v>0.007118554940326613</v>
+        <v>-0.009377777864093122</v>
       </c>
       <c r="E41">
-        <v>-0.01722823826584865</v>
+        <v>-0.003131891882866527</v>
       </c>
       <c r="F41">
-        <v>-0.01336064737440193</v>
+        <v>-0.003314455141791485</v>
       </c>
       <c r="G41">
-        <v>0.05628317876474885</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.009972934033224039</v>
+      </c>
+      <c r="H41">
+        <v>0.0165099527725148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3539864416447002</v>
+        <v>0.1784233389202176</v>
       </c>
       <c r="C42">
-        <v>-0.888540609034152</v>
+        <v>0.1082231880183639</v>
       </c>
       <c r="D42">
-        <v>0.1855543794486303</v>
+        <v>0.5249113954785322</v>
       </c>
       <c r="E42">
-        <v>0.1381893046394934</v>
+        <v>-0.111637490506589</v>
       </c>
       <c r="F42">
-        <v>0.03378881898058122</v>
+        <v>-0.8003325705910765</v>
       </c>
       <c r="G42">
-        <v>0.0213156442594269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.09739995977215984</v>
+      </c>
+      <c r="H42">
+        <v>-0.02191900827007374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00739316753836689</v>
+        <v>0.01024974863447312</v>
       </c>
       <c r="C43">
-        <v>-0.003670937170242688</v>
+        <v>0.001693600736230766</v>
       </c>
       <c r="D43">
-        <v>0.01009213383883893</v>
+        <v>-0.01275965047515062</v>
       </c>
       <c r="E43">
-        <v>-0.02177523214033761</v>
+        <v>-0.00822679143684491</v>
       </c>
       <c r="F43">
-        <v>-0.03344822663885386</v>
+        <v>-0.007968058988361507</v>
       </c>
       <c r="G43">
-        <v>0.0491544247943825</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01885260518845771</v>
+      </c>
+      <c r="H43">
+        <v>0.008909624968982781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01950172344052443</v>
+        <v>0.01665955873742895</v>
       </c>
       <c r="C44">
-        <v>-0.001486361162707955</v>
+        <v>-0.001088540233214267</v>
       </c>
       <c r="D44">
-        <v>0.02465058017719659</v>
+        <v>0.02199254429528122</v>
       </c>
       <c r="E44">
-        <v>-0.0758605231291785</v>
+        <v>0.0002291486501619654</v>
       </c>
       <c r="F44">
-        <v>-0.1711441795463644</v>
+        <v>0.001960655147631947</v>
       </c>
       <c r="G44">
-        <v>0.1549962770440034</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.09108975821937906</v>
+      </c>
+      <c r="H44">
+        <v>-0.01383692342703131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02000646152322683</v>
+        <v>0.0218622181462445</v>
       </c>
       <c r="C46">
-        <v>0.01783920697748007</v>
+        <v>0.001385114268234673</v>
       </c>
       <c r="D46">
-        <v>0.02072099208254717</v>
+        <v>0.009416098090237282</v>
       </c>
       <c r="E46">
-        <v>-0.0724897261908261</v>
+        <v>-0.002326022528505303</v>
       </c>
       <c r="F46">
-        <v>-0.06715307543624328</v>
+        <v>0.03078526181364885</v>
       </c>
       <c r="G46">
-        <v>0.05657817636771496</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05922030548901934</v>
+      </c>
+      <c r="H46">
+        <v>0.01410551808217193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09785864159960242</v>
+        <v>0.0772481166036445</v>
       </c>
       <c r="C47">
-        <v>0.03273545476694649</v>
+        <v>-0.03176470240715623</v>
       </c>
       <c r="D47">
-        <v>0.02487558847115222</v>
+        <v>0.03459875188189316</v>
       </c>
       <c r="E47">
-        <v>-0.03387366221408751</v>
+        <v>-0.005189791526564767</v>
       </c>
       <c r="F47">
-        <v>-0.004272374299748614</v>
+        <v>0.03069335404149924</v>
       </c>
       <c r="G47">
-        <v>0.08870174490697309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008570215920616166</v>
+      </c>
+      <c r="H47">
+        <v>0.02979310668992069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01435106937936092</v>
+        <v>0.02179613927442293</v>
       </c>
       <c r="C48">
-        <v>0.003795980636864792</v>
+        <v>-0.006908331223545598</v>
       </c>
       <c r="D48">
-        <v>0.01719932160110663</v>
+        <v>0.004577073169720389</v>
       </c>
       <c r="E48">
-        <v>-0.04085163928832883</v>
+        <v>-0.003044254793902611</v>
       </c>
       <c r="F48">
-        <v>-0.03649840708566352</v>
+        <v>0.01080458259570137</v>
       </c>
       <c r="G48">
-        <v>0.01947029642877147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02894515869737779</v>
+      </c>
+      <c r="H48">
+        <v>0.0001559708790680224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09146512682680008</v>
+        <v>0.0732112148679788</v>
       </c>
       <c r="C50">
-        <v>0.01493029232048847</v>
+        <v>-0.02722820939115784</v>
       </c>
       <c r="D50">
-        <v>0.03808050355497109</v>
+        <v>0.04206886515966226</v>
       </c>
       <c r="E50">
-        <v>-0.05165265642788962</v>
+        <v>0.009391011589064671</v>
       </c>
       <c r="F50">
-        <v>-0.02519204552501802</v>
+        <v>0.02425190719539335</v>
       </c>
       <c r="G50">
-        <v>0.03693217913789402</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02358851167860873</v>
+      </c>
+      <c r="H50">
+        <v>0.02693844632858673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0219619491261694</v>
+        <v>0.02206173597008905</v>
       </c>
       <c r="C51">
-        <v>0.01357919824148076</v>
+        <v>-0.0006756228762296138</v>
       </c>
       <c r="D51">
-        <v>0.02099795938783413</v>
+        <v>-0.008918412900880504</v>
       </c>
       <c r="E51">
-        <v>-0.02971388323568984</v>
+        <v>-0.008021598395234831</v>
       </c>
       <c r="F51">
-        <v>-0.146775732863125</v>
+        <v>-0.003407775507311645</v>
       </c>
       <c r="G51">
-        <v>0.04901413828546505</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0758295653489211</v>
+      </c>
+      <c r="H51">
+        <v>-0.02378221920815206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1041406133861108</v>
+        <v>0.09538807871980561</v>
       </c>
       <c r="C53">
-        <v>0.04541816694262373</v>
+        <v>-0.03872084414349077</v>
       </c>
       <c r="D53">
-        <v>0.04108645495501941</v>
+        <v>0.06497444008539978</v>
       </c>
       <c r="E53">
-        <v>-0.04221018565235288</v>
+        <v>-0.001330536464024194</v>
       </c>
       <c r="F53">
-        <v>0.05422934280162362</v>
+        <v>0.06277715461919611</v>
       </c>
       <c r="G53">
-        <v>0.03255672846941582</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05515079636452967</v>
+      </c>
+      <c r="H53">
+        <v>0.03446917788862993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0150272729403841</v>
+        <v>0.02435469989039445</v>
       </c>
       <c r="C54">
-        <v>0.02931476508842748</v>
+        <v>-0.01284498941496983</v>
       </c>
       <c r="D54">
-        <v>0.0004270567167615185</v>
+        <v>-0.01944745680762569</v>
       </c>
       <c r="E54">
-        <v>-0.03850838405219624</v>
+        <v>0.00300435077478152</v>
       </c>
       <c r="F54">
-        <v>-0.06579654122356951</v>
+        <v>0.01256241179323855</v>
       </c>
       <c r="G54">
-        <v>0.07111909382443325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03830451239086857</v>
+      </c>
+      <c r="H54">
+        <v>0.01485282983034637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1005174902228711</v>
+        <v>0.08099620427121618</v>
       </c>
       <c r="C55">
-        <v>0.03220792181480345</v>
+        <v>-0.03387110005831227</v>
       </c>
       <c r="D55">
-        <v>0.002037826486211687</v>
+        <v>0.06307204940021696</v>
       </c>
       <c r="E55">
-        <v>-0.05146358968764546</v>
+        <v>0.01006378151079326</v>
       </c>
       <c r="F55">
-        <v>0.04725945969310292</v>
+        <v>0.05288487970802218</v>
       </c>
       <c r="G55">
-        <v>0.07046203042765488</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03287600620543402</v>
+      </c>
+      <c r="H55">
+        <v>0.04606179481173276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1469909560478243</v>
+        <v>0.1313170331445393</v>
       </c>
       <c r="C56">
-        <v>0.07933002557134232</v>
+        <v>-0.05929783995470164</v>
       </c>
       <c r="D56">
-        <v>0.02601467606541322</v>
+        <v>0.0838043690012554</v>
       </c>
       <c r="E56">
-        <v>-0.04242000579499963</v>
+        <v>0.003144167678721307</v>
       </c>
       <c r="F56">
-        <v>0.1635844425124921</v>
+        <v>0.08862192133809343</v>
       </c>
       <c r="G56">
-        <v>0.006182594833297663</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.09981069914947778</v>
+      </c>
+      <c r="H56">
+        <v>0.02819287691931983</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04273426365264645</v>
+        <v>0.04336866806170288</v>
       </c>
       <c r="C57">
-        <v>0.01053384383872974</v>
+        <v>0.008145700347496976</v>
       </c>
       <c r="D57">
-        <v>0.03398720287768264</v>
+        <v>0.02181733625553684</v>
       </c>
       <c r="E57">
-        <v>-0.01753922017050979</v>
+        <v>-0.0105875543847555</v>
       </c>
       <c r="F57">
-        <v>-0.0766161658144995</v>
+        <v>0.02286277082201552</v>
       </c>
       <c r="G57">
-        <v>0.03434967882646669</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06292781738857021</v>
+      </c>
+      <c r="H57">
+        <v>-0.009093052618240246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1988191292307109</v>
+        <v>0.1494648520945638</v>
       </c>
       <c r="C58">
-        <v>0.02239958872870317</v>
+        <v>-0.04387828773709996</v>
       </c>
       <c r="D58">
-        <v>0.1122546716101665</v>
+        <v>0.1319521197621919</v>
       </c>
       <c r="E58">
-        <v>-0.2495679594176162</v>
+        <v>-0.1099962250821606</v>
       </c>
       <c r="F58">
-        <v>-0.2114118145987124</v>
+        <v>0.01887546124486413</v>
       </c>
       <c r="G58">
-        <v>-0.0402343991438199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6660316037856645</v>
+      </c>
+      <c r="H58">
+        <v>0.5576983245240577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06852816091686213</v>
+        <v>0.1489435844067233</v>
       </c>
       <c r="C59">
-        <v>0.08274486765830966</v>
+        <v>-0.04413733503570358</v>
       </c>
       <c r="D59">
-        <v>-0.02553684895571063</v>
+        <v>-0.21471721338604</v>
       </c>
       <c r="E59">
-        <v>0.1320643848618001</v>
+        <v>-0.04264442969190644</v>
       </c>
       <c r="F59">
-        <v>-0.1040264037342951</v>
+        <v>-0.07413243751780624</v>
       </c>
       <c r="G59">
-        <v>-0.03991626014280408</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01683213945401991</v>
+      </c>
+      <c r="H59">
+        <v>-0.02067627152066505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1695299036790693</v>
+        <v>0.1734090087520866</v>
       </c>
       <c r="C60">
-        <v>0.05401913024665008</v>
+        <v>-0.04121695560384597</v>
       </c>
       <c r="D60">
-        <v>0.06872085253442543</v>
+        <v>0.01457393511108421</v>
       </c>
       <c r="E60">
-        <v>-0.05940635548559112</v>
+        <v>-0.05500565448145536</v>
       </c>
       <c r="F60">
-        <v>-0.1256112986751864</v>
+        <v>0.05036182011610652</v>
       </c>
       <c r="G60">
-        <v>-0.3382489219033361</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1360955211953735</v>
+      </c>
+      <c r="H60">
+        <v>-0.3751105697907581</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0199615429274314</v>
+        <v>0.02346254063164509</v>
       </c>
       <c r="C61">
-        <v>0.005306773260358499</v>
+        <v>-0.006779506603404602</v>
       </c>
       <c r="D61">
-        <v>0.007600897167898458</v>
+        <v>0.03688772618808046</v>
       </c>
       <c r="E61">
-        <v>-0.02877328799425481</v>
+        <v>0.003024442434275099</v>
       </c>
       <c r="F61">
-        <v>-0.02184919727925858</v>
+        <v>0.02687912669071112</v>
       </c>
       <c r="G61">
-        <v>0.01763082014535869</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03333049275769878</v>
+      </c>
+      <c r="H61">
+        <v>-0.03767359164316881</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01663018389715967</v>
+        <v>0.01423560245562509</v>
       </c>
       <c r="C63">
-        <v>0.007851651488188753</v>
+        <v>0.001316736305207758</v>
       </c>
       <c r="D63">
-        <v>0.01256849312889977</v>
+        <v>0.008087329111250506</v>
       </c>
       <c r="E63">
-        <v>-0.04198872482722309</v>
+        <v>0.002035979039984274</v>
       </c>
       <c r="F63">
-        <v>-0.008980602059525248</v>
+        <v>0.01848967761485539</v>
       </c>
       <c r="G63">
-        <v>0.04467983739187209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01628431471738113</v>
+      </c>
+      <c r="H63">
+        <v>0.0123454646067893</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03839058608165513</v>
+        <v>0.04465191769351239</v>
       </c>
       <c r="C64">
-        <v>0.0214397417932918</v>
+        <v>-0.01214728757125314</v>
       </c>
       <c r="D64">
-        <v>-0.01861261313838923</v>
+        <v>0.03354486774432488</v>
       </c>
       <c r="E64">
-        <v>-0.04153881901783828</v>
+        <v>0.01028754710038978</v>
       </c>
       <c r="F64">
-        <v>-0.02326570839983338</v>
+        <v>0.02311556747058768</v>
       </c>
       <c r="G64">
-        <v>0.0689248790665046</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02280563855869665</v>
+      </c>
+      <c r="H64">
+        <v>-0.02616203014480213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01344812261956742</v>
+        <v>0.0351949656357206</v>
       </c>
       <c r="C65">
-        <v>-0.003778904922932212</v>
+        <v>0.002982935868548572</v>
       </c>
       <c r="D65">
-        <v>0.01326498160172786</v>
+        <v>0.04509760095151067</v>
       </c>
       <c r="E65">
-        <v>-0.02126844235046804</v>
+        <v>0.005714087847537411</v>
       </c>
       <c r="F65">
-        <v>-0.007584721209665553</v>
+        <v>0.03574427938843155</v>
       </c>
       <c r="G65">
-        <v>-0.00751491107052629</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.006428718262395204</v>
+      </c>
+      <c r="H65">
+        <v>-0.05980827255843197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03766234066497515</v>
+        <v>0.02956606743420539</v>
       </c>
       <c r="C66">
-        <v>0.0229784471652874</v>
+        <v>-0.006297655124291849</v>
       </c>
       <c r="D66">
-        <v>0.02513736362889174</v>
+        <v>0.0776963754501733</v>
       </c>
       <c r="E66">
-        <v>-0.05305098547698673</v>
+        <v>-0.005727397456651922</v>
       </c>
       <c r="F66">
-        <v>-0.03671253254823156</v>
+        <v>0.05792614117767389</v>
       </c>
       <c r="G66">
-        <v>0.007503707940205135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04869471551375888</v>
+      </c>
+      <c r="H66">
+        <v>-0.05936759764726633</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02032791133742678</v>
+        <v>0.04355064545648635</v>
       </c>
       <c r="C67">
-        <v>0.0001487765713911465</v>
+        <v>-0.02102289211374937</v>
       </c>
       <c r="D67">
-        <v>-0.01531085849486173</v>
+        <v>-0.00647558105086413</v>
       </c>
       <c r="E67">
-        <v>0.02079839600459998</v>
+        <v>0.00051684711461132</v>
       </c>
       <c r="F67">
-        <v>-0.02537278363251793</v>
+        <v>0.01161532231725434</v>
       </c>
       <c r="G67">
-        <v>-0.01453361555037589</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01910776665675403</v>
+      </c>
+      <c r="H67">
+        <v>-0.03231394913941973</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08121383795734299</v>
+        <v>0.1492984827715861</v>
       </c>
       <c r="C68">
-        <v>0.06026761850199636</v>
+        <v>-0.02222271911193805</v>
       </c>
       <c r="D68">
-        <v>-0.04215238303979384</v>
+        <v>-0.2002693310522835</v>
       </c>
       <c r="E68">
-        <v>0.1673379805091259</v>
+        <v>-0.03693626265274248</v>
       </c>
       <c r="F68">
-        <v>-0.08032602427437248</v>
+        <v>-0.09822330452749724</v>
       </c>
       <c r="G68">
-        <v>-0.07600671935573883</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01151588612035386</v>
+      </c>
+      <c r="H68">
+        <v>0.04179759820692717</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07238968626566887</v>
+        <v>0.06193544927978563</v>
       </c>
       <c r="C69">
-        <v>0.02795407493370069</v>
+        <v>-0.02976945319103487</v>
       </c>
       <c r="D69">
-        <v>0.02464807269458618</v>
+        <v>0.03304853115113967</v>
       </c>
       <c r="E69">
-        <v>-0.01132338477479435</v>
+        <v>-0.0053921486834235</v>
       </c>
       <c r="F69">
-        <v>-0.01520609293935203</v>
+        <v>0.02881190047497372</v>
       </c>
       <c r="G69">
-        <v>0.07573258201421339</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.000247649046371802</v>
+      </c>
+      <c r="H69">
+        <v>0.009460416922468379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09828568743127883</v>
+        <v>0.1428066922495654</v>
       </c>
       <c r="C71">
-        <v>0.06496604466494266</v>
+        <v>-0.03031879804481583</v>
       </c>
       <c r="D71">
-        <v>-0.02094392095686528</v>
+        <v>-0.1864039796732771</v>
       </c>
       <c r="E71">
-        <v>0.20950730465996</v>
+        <v>-0.036555615985054</v>
       </c>
       <c r="F71">
-        <v>-0.1015982664830397</v>
+        <v>-0.1026525772510162</v>
       </c>
       <c r="G71">
-        <v>-0.04770830968512482</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01041473349573189</v>
+      </c>
+      <c r="H71">
+        <v>0.02481278518860037</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1111982088578715</v>
+        <v>0.09128493435796149</v>
       </c>
       <c r="C72">
-        <v>0.09133876393198645</v>
+        <v>-0.04448154649573897</v>
       </c>
       <c r="D72">
-        <v>0.01956629436204609</v>
+        <v>0.0657722311990958</v>
       </c>
       <c r="E72">
-        <v>-0.08189492796650574</v>
+        <v>-0.007833024662366088</v>
       </c>
       <c r="F72">
-        <v>-0.08432607388318397</v>
+        <v>0.1017047016679061</v>
       </c>
       <c r="G72">
-        <v>-0.1139283102291222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.1029037148879717</v>
+      </c>
+      <c r="H72">
+        <v>-0.1487064273200525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2464854772278917</v>
+        <v>0.2402289369782649</v>
       </c>
       <c r="C73">
-        <v>0.06887503026430383</v>
+        <v>-0.05246968131422201</v>
       </c>
       <c r="D73">
-        <v>0.06298146860622693</v>
+        <v>0.0629347957041929</v>
       </c>
       <c r="E73">
-        <v>-0.02751015702887203</v>
+        <v>-0.07810082642137831</v>
       </c>
       <c r="F73">
-        <v>-0.1967542719026407</v>
+        <v>0.06345938473571204</v>
       </c>
       <c r="G73">
-        <v>-0.4845133396591592</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1846857784041859</v>
+      </c>
+      <c r="H73">
+        <v>-0.5045047751586191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1282891731227926</v>
+        <v>0.1187804418915026</v>
       </c>
       <c r="C74">
-        <v>0.04476814923471453</v>
+        <v>-0.05337465021514861</v>
       </c>
       <c r="D74">
-        <v>0.03503465147946597</v>
+        <v>0.08460422375353073</v>
       </c>
       <c r="E74">
-        <v>-0.01689629707725653</v>
+        <v>-0.005705084450415882</v>
       </c>
       <c r="F74">
-        <v>0.09464862973763156</v>
+        <v>0.07475405081594762</v>
       </c>
       <c r="G74">
-        <v>-0.02092932825579078</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07431121030399283</v>
+      </c>
+      <c r="H74">
+        <v>0.007933494305668308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2202561246202958</v>
+        <v>0.2308074160759603</v>
       </c>
       <c r="C75">
-        <v>0.1224250815637035</v>
+        <v>-0.105778623827697</v>
       </c>
       <c r="D75">
-        <v>0.06837607812017717</v>
+        <v>0.1334016219754296</v>
       </c>
       <c r="E75">
-        <v>-0.05940229584099657</v>
+        <v>-0.02054373256271741</v>
       </c>
       <c r="F75">
-        <v>0.1705273535544125</v>
+        <v>0.1500519668632571</v>
       </c>
       <c r="G75">
-        <v>0.05648342782105106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.158877899181695</v>
+      </c>
+      <c r="H75">
+        <v>0.08983535131561192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.272972300456398</v>
+        <v>0.2086519989658913</v>
       </c>
       <c r="C76">
-        <v>0.1277743825790468</v>
+        <v>-0.100048807801326</v>
       </c>
       <c r="D76">
-        <v>0.008518096059434739</v>
+        <v>0.123421405902526</v>
       </c>
       <c r="E76">
-        <v>-0.02791952548866818</v>
+        <v>0.02104256849429197</v>
       </c>
       <c r="F76">
-        <v>0.2034152349157109</v>
+        <v>0.146862011739755</v>
       </c>
       <c r="G76">
-        <v>0.0663646914253639</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1738179633170193</v>
+      </c>
+      <c r="H76">
+        <v>0.09328355443084138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1406250421063976</v>
+        <v>0.07311106206238428</v>
       </c>
       <c r="C77">
-        <v>-0.02384717502228547</v>
+        <v>-0.009711128140635886</v>
       </c>
       <c r="D77">
-        <v>0.06393903718842113</v>
+        <v>0.07467667115030353</v>
       </c>
       <c r="E77">
-        <v>-0.1225824683723005</v>
+        <v>-0.01062630088180399</v>
       </c>
       <c r="F77">
-        <v>-0.2200735746899483</v>
+        <v>-0.001670254130533589</v>
       </c>
       <c r="G77">
-        <v>0.1331514105172691</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.132693838483533</v>
+      </c>
+      <c r="H77">
+        <v>0.0679801899003394</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05407132129543282</v>
+        <v>0.03736242616519207</v>
       </c>
       <c r="C78">
-        <v>0.0148940492982205</v>
+        <v>-0.01075743939090461</v>
       </c>
       <c r="D78">
-        <v>0.03553778503625647</v>
+        <v>0.05759277153752307</v>
       </c>
       <c r="E78">
-        <v>-0.1116668735234047</v>
+        <v>0.003866869730929951</v>
       </c>
       <c r="F78">
-        <v>-0.03015758037793569</v>
+        <v>0.04782172146929892</v>
       </c>
       <c r="G78">
-        <v>0.06156238263352949</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06039331193229511</v>
+      </c>
+      <c r="H78">
+        <v>-0.02571550851752786</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.211008761345782</v>
+        <v>0.1683348727308986</v>
       </c>
       <c r="C80">
-        <v>-0.1534640826085383</v>
+        <v>-0.05204251585969438</v>
       </c>
       <c r="D80">
-        <v>-0.9262771039462289</v>
+        <v>-0.005169877076568638</v>
       </c>
       <c r="E80">
-        <v>-0.2336577570629093</v>
+        <v>0.9631799157078654</v>
       </c>
       <c r="F80">
-        <v>-0.01692470861692416</v>
+        <v>-0.1260576560678509</v>
       </c>
       <c r="G80">
-        <v>-0.02736057166955595</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09364468402996315</v>
+      </c>
+      <c r="H80">
+        <v>-0.007976474704568328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1592390007707294</v>
+        <v>0.1522301761996224</v>
       </c>
       <c r="C81">
-        <v>0.09049127187916858</v>
+        <v>-0.06896853271503499</v>
       </c>
       <c r="D81">
-        <v>0.02056242636789795</v>
+        <v>0.0825392971223478</v>
       </c>
       <c r="E81">
-        <v>-0.04137939472125535</v>
+        <v>0.002593103029586422</v>
       </c>
       <c r="F81">
-        <v>0.17842483406719</v>
+        <v>0.09696074639854389</v>
       </c>
       <c r="G81">
-        <v>0.02811549928789108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1057978980029582</v>
+      </c>
+      <c r="H81">
+        <v>0.0668582402958378</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05619783553041762</v>
+        <v>0.03879843862566297</v>
       </c>
       <c r="C83">
-        <v>-0.01303710406427085</v>
+        <v>-0.007664198457517648</v>
       </c>
       <c r="D83">
-        <v>0.03728281596060692</v>
+        <v>0.02265991340760182</v>
       </c>
       <c r="E83">
-        <v>-0.02959715935636636</v>
+        <v>-0.01196705926835252</v>
       </c>
       <c r="F83">
-        <v>-0.05986593477909657</v>
+        <v>0.007664064956677951</v>
       </c>
       <c r="G83">
-        <v>0.0489535098493997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05657670589719811</v>
+      </c>
+      <c r="H83">
+        <v>-0.0141111009052645</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2391409569796405</v>
+        <v>0.2157381570957402</v>
       </c>
       <c r="C85">
-        <v>0.1123379186073647</v>
+        <v>-0.08697569273814082</v>
       </c>
       <c r="D85">
-        <v>0.04139303772776527</v>
+        <v>0.1389084371487476</v>
       </c>
       <c r="E85">
-        <v>-0.03398947028560446</v>
+        <v>-0.01174693946803443</v>
       </c>
       <c r="F85">
-        <v>0.187454928545985</v>
+        <v>0.1334026879958506</v>
       </c>
       <c r="G85">
-        <v>0.08124672605317403</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1687830372441646</v>
+      </c>
+      <c r="H85">
+        <v>0.0598670761427663</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>3.565716566937222e-05</v>
+        <v>0.01638983296826531</v>
       </c>
       <c r="C86">
-        <v>-0.009807348142209576</v>
+        <v>0.001071453072558901</v>
       </c>
       <c r="D86">
-        <v>0.0004741103407589089</v>
+        <v>0.005709879272777617</v>
       </c>
       <c r="E86">
-        <v>-0.0466477559495953</v>
+        <v>-0.01101127560380238</v>
       </c>
       <c r="F86">
-        <v>-0.0676977320393231</v>
+        <v>-0.003317226176312529</v>
       </c>
       <c r="G86">
-        <v>0.01619672861336867</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08904046820814031</v>
+      </c>
+      <c r="H86">
+        <v>-0.03900085684677303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03276779451003103</v>
+        <v>0.02909134028055783</v>
       </c>
       <c r="C87">
-        <v>0.006973640227892012</v>
+        <v>-0.003484092214091982</v>
       </c>
       <c r="D87">
-        <v>0.01110500758924805</v>
+        <v>0.02783862314305006</v>
       </c>
       <c r="E87">
-        <v>-0.03816785251200448</v>
+        <v>-0.001210968023157714</v>
       </c>
       <c r="F87">
-        <v>-0.08243483474474383</v>
+        <v>0.02248375323263941</v>
       </c>
       <c r="G87">
-        <v>-0.002190420599211147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09615380536055339</v>
+      </c>
+      <c r="H87">
+        <v>-0.02605480715170255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009528238082610458</v>
+        <v>0.03650245472675134</v>
       </c>
       <c r="C88">
-        <v>0.01415336258291607</v>
+        <v>0.01038574378413402</v>
       </c>
       <c r="D88">
-        <v>-0.02433279444426562</v>
+        <v>-0.0005817316968187934</v>
       </c>
       <c r="E88">
-        <v>0.005948456061946792</v>
+        <v>0.008715549949664704</v>
       </c>
       <c r="F88">
-        <v>-0.03670494013901891</v>
+        <v>0.01239372946316248</v>
       </c>
       <c r="G88">
-        <v>0.06350889770203404</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003854764541267053</v>
+      </c>
+      <c r="H88">
+        <v>-0.009603426776492473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1152026335891849</v>
+        <v>0.2322786474099837</v>
       </c>
       <c r="C89">
-        <v>0.09561182642401428</v>
+        <v>-0.0462294669664546</v>
       </c>
       <c r="D89">
-        <v>-0.03161621671344594</v>
+        <v>-0.3280500669972491</v>
       </c>
       <c r="E89">
-        <v>0.2756762132785741</v>
+        <v>-0.08153101653840157</v>
       </c>
       <c r="F89">
-        <v>-0.1653150782327907</v>
+        <v>-0.1379323327700807</v>
       </c>
       <c r="G89">
-        <v>-0.01649390433597802</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001883826524563868</v>
+      </c>
+      <c r="H89">
+        <v>0.03019900229183984</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1082153624802708</v>
+        <v>0.1845591667388112</v>
       </c>
       <c r="C90">
-        <v>0.09047018435758494</v>
+        <v>-0.03723231604978253</v>
       </c>
       <c r="D90">
-        <v>-0.07545041733756859</v>
+        <v>-0.2824091103561366</v>
       </c>
       <c r="E90">
-        <v>0.2891152714754477</v>
+        <v>-0.0540697082839274</v>
       </c>
       <c r="F90">
-        <v>-0.1268224020688059</v>
+        <v>-0.1365885134370046</v>
       </c>
       <c r="G90">
-        <v>-0.03295307223362481</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04199047711250076</v>
+      </c>
+      <c r="H90">
+        <v>0.04486034325554267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2933535270700752</v>
+        <v>0.23795751905599</v>
       </c>
       <c r="C91">
-        <v>0.09934767937652347</v>
+        <v>-0.1067062715126506</v>
       </c>
       <c r="D91">
-        <v>0.05791058268076033</v>
+        <v>0.1330585908590375</v>
       </c>
       <c r="E91">
-        <v>-0.01022819865349393</v>
+        <v>-0.01272931818103015</v>
       </c>
       <c r="F91">
-        <v>0.2585206020976056</v>
+        <v>0.1363798124716346</v>
       </c>
       <c r="G91">
-        <v>0.04242061841332537</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2045327137936078</v>
+      </c>
+      <c r="H91">
+        <v>0.1215876128869287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1831854324408562</v>
+        <v>0.2395203097776739</v>
       </c>
       <c r="C92">
-        <v>0.09262352510200943</v>
+        <v>-0.1003306350081794</v>
       </c>
       <c r="D92">
-        <v>-0.1057706077726173</v>
+        <v>-0.2317956202031648</v>
       </c>
       <c r="E92">
-        <v>0.4618406388997561</v>
+        <v>-0.03443700364010874</v>
       </c>
       <c r="F92">
-        <v>-0.09349781714056699</v>
+        <v>-0.1170647356680777</v>
       </c>
       <c r="G92">
-        <v>0.4812574518014597</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.05034434836488057</v>
+      </c>
+      <c r="H92">
+        <v>0.1364717875053775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1154183353834165</v>
+        <v>0.2075532181066957</v>
       </c>
       <c r="C93">
-        <v>0.07273287880122414</v>
+        <v>-0.04788148066072162</v>
       </c>
       <c r="D93">
-        <v>-0.08823034589119408</v>
+        <v>-0.3022169083296097</v>
       </c>
       <c r="E93">
-        <v>0.4035493172049961</v>
+        <v>-0.06719032671737128</v>
       </c>
       <c r="F93">
-        <v>-0.09674483424711749</v>
+        <v>-0.1748526507123009</v>
       </c>
       <c r="G93">
-        <v>-0.1016660549128017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05392453156131786</v>
+      </c>
+      <c r="H93">
+        <v>-0.01439594240963211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2698081990642558</v>
+        <v>0.255463122459688</v>
       </c>
       <c r="C94">
-        <v>0.1420127328099818</v>
+        <v>-0.09518137159757575</v>
       </c>
       <c r="D94">
-        <v>0.0289622654397318</v>
+        <v>0.1166550955301962</v>
       </c>
       <c r="E94">
-        <v>-0.02185004761132542</v>
+        <v>-0.03085972500916844</v>
       </c>
       <c r="F94">
-        <v>0.303472360177111</v>
+        <v>0.1613198815884506</v>
       </c>
       <c r="G94">
-        <v>-0.02034827754303352</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2142826804303645</v>
+      </c>
+      <c r="H94">
+        <v>0.1345192919578918</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08011174709698261</v>
+        <v>0.06517967385805033</v>
       </c>
       <c r="C95">
-        <v>0.007672242853449205</v>
+        <v>-0.03279338689013513</v>
       </c>
       <c r="D95">
-        <v>0.07349723438229738</v>
+        <v>0.08812785008070227</v>
       </c>
       <c r="E95">
-        <v>-0.08290803342126943</v>
+        <v>-0.07119901721721837</v>
       </c>
       <c r="F95">
-        <v>-0.0309528430257508</v>
+        <v>0.02612974908787665</v>
       </c>
       <c r="G95">
-        <v>0.2257339658773178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06162617876565483</v>
+      </c>
+      <c r="H95">
+        <v>-0.004815480213678837</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1869728898015208</v>
+        <v>0.1810422190412019</v>
       </c>
       <c r="C98">
-        <v>0.03714391495470918</v>
+        <v>-0.07215728346946547</v>
       </c>
       <c r="D98">
-        <v>0.04642164116063645</v>
+        <v>0.03875443110635443</v>
       </c>
       <c r="E98">
-        <v>0.01715391097264614</v>
+        <v>-0.05289723820091155</v>
       </c>
       <c r="F98">
-        <v>-0.07824156729659515</v>
+        <v>0.02372492625672443</v>
       </c>
       <c r="G98">
-        <v>-0.339626854251308</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1559539641888162</v>
+      </c>
+      <c r="H98">
+        <v>-0.364498692040427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004514517274804875</v>
+        <v>0.01514702273189701</v>
       </c>
       <c r="C101">
-        <v>0.02168307146560521</v>
+        <v>-0.0002953635465271493</v>
       </c>
       <c r="D101">
-        <v>0.01346365400696268</v>
+        <v>0.004968952868342841</v>
       </c>
       <c r="E101">
-        <v>-0.1293494018039371</v>
+        <v>0.004751968816284126</v>
       </c>
       <c r="F101">
-        <v>-0.132193247174905</v>
+        <v>0.03040371921961607</v>
       </c>
       <c r="G101">
-        <v>0.126784067303778</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1021837245917473</v>
+      </c>
+      <c r="H101">
+        <v>0.07309605484632704</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09901871507840937</v>
+        <v>0.1045420235781771</v>
       </c>
       <c r="C102">
-        <v>0.03056812229925149</v>
+        <v>-0.03436357885682069</v>
       </c>
       <c r="D102">
-        <v>0.01252405402758614</v>
+        <v>0.07052109908161934</v>
       </c>
       <c r="E102">
-        <v>-0.04829574521572601</v>
+        <v>0.00223399868186235</v>
       </c>
       <c r="F102">
-        <v>0.1358798196016673</v>
+        <v>0.06637934726795931</v>
       </c>
       <c r="G102">
-        <v>0.07606672860803779</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09548243109868204</v>
+      </c>
+      <c r="H102">
+        <v>0.05354655047462997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02512298039597359</v>
+        <v>0.02065311701214992</v>
       </c>
       <c r="C103">
-        <v>0.01270130087090413</v>
+        <v>-0.008053113609103952</v>
       </c>
       <c r="D103">
-        <v>0.01261808087861131</v>
+        <v>0.01429238120602169</v>
       </c>
       <c r="E103">
-        <v>-0.003423672912283619</v>
+        <v>0.006306338231876459</v>
       </c>
       <c r="F103">
-        <v>0.01178726720131025</v>
+        <v>0.01799834532580325</v>
       </c>
       <c r="G103">
-        <v>0.02146810686163792</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.006028485383019214</v>
+      </c>
+      <c r="H103">
+        <v>0.01067562409790012</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2883297292079035</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9372724443852039</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.04423137563608549</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02385002102479233</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.157527519662541</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03717853367937687</v>
+      </c>
+      <c r="H104">
+        <v>0.03102193817381546</v>
       </c>
     </row>
   </sheetData>
